--- a/data-raw/eden.nonnormal.xlsx
+++ b/data-raw/eden.nonnormal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC46D4-805E-4ED1-9556-57B3686F1919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="6468"/>
+    <workbookView xWindow="3280" yWindow="2240" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,14 +71,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +119,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -355,16 +364,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -390,7 +399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>65</v>
       </c>
@@ -416,7 +425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42</v>
       </c>
@@ -442,7 +451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>26</v>
       </c>
@@ -468,7 +477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39.5</v>
       </c>
@@ -494,7 +503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>72</v>
       </c>
@@ -520,7 +529,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>51.5</v>
       </c>
@@ -546,7 +555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>74.5</v>
       </c>
@@ -572,7 +581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>62.5</v>
       </c>
@@ -598,7 +607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>40</v>
       </c>
@@ -624,7 +633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>57.5</v>
       </c>
@@ -650,7 +659,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>61</v>
       </c>
@@ -676,7 +685,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>63</v>
       </c>
@@ -702,7 +711,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>45</v>
       </c>
@@ -728,7 +737,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>48.5</v>
       </c>
@@ -754,7 +763,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>68</v>
       </c>
@@ -780,7 +789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>46</v>
       </c>
@@ -806,7 +815,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>68</v>
       </c>
@@ -832,7 +841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -858,7 +867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>46.5</v>
       </c>
@@ -884,7 +893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42</v>
       </c>
@@ -910,7 +919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>68</v>
       </c>
@@ -936,7 +945,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>68</v>
       </c>
@@ -962,7 +971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>26.5</v>
       </c>
@@ -988,7 +997,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>44</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>40.5</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>56</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>69.5</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>77</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>56</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>68</v>
       </c>
@@ -1228,24 +1237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
